--- a/datasets/agri_laws_and_cases.xlsx
+++ b/datasets/agri_laws_and_cases.xlsx
@@ -3521,7 +3521,7 @@
     <t>litigation_cases</t>
   </si>
   <si>
-    <t>'agriculture', 'agricultural'</t>
+    <t>'agricultural', 'agriculture'</t>
   </si>
   <si>
     <t>'agricultural'</t>
